--- a/Consumer/Planet Fitness.xlsx
+++ b/Consumer/Planet Fitness.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Organized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F509205-1152-BD45-B72E-AC119D97FBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F73FC-CA84-BB4D-AA85-D5B5E2DC5AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24460" yWindow="500" windowWidth="26660" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1013,6 +1013,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,12 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2274,13 +2274,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>87.04</v>
+    <v>85.905000000000001</v>
     <v>54.15</v>
-    <v>1.2986</v>
-    <v>1.96</v>
-    <v>2.5260999999999999E-2</v>
-    <v>-0.54</v>
-    <v>-6.7879999999999998E-3</v>
+    <v>1.3193999999999999</v>
+    <v>0.18</v>
+    <v>2.6050000000000001E-3</v>
+    <v>0.31</v>
+    <v>4.4740000000000005E-3</v>
     <v>USD</v>
     <v>Planet Fitness, Inc. is a franchisor and operator of fitness centers in the United States. The Company operates through three segments: Franchise; Corporate-owned stores, and Equipment. The Franchise segment includes operations related to the Company's franchising business in the United States, Puerto Rico, the Dominican Republic and Canada. The Corporate-owned stores segment includes operations with respect to all corporate-owned stores throughout the United States and Canada. The Equipment segment includes the sale of equipment to franchisee-owned stores. As of June 18, 2019, it had approximately 13.6 million members and 1806 stores in 50 states, the District of Columbia, Puerto Rico, Canada and the Dominican Republic.</v>
     <v>2795</v>
@@ -2288,25 +2288,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4 Liberty Lane West, HAMPTON, NH, 03842 US</v>
-    <v>79.760000000000005</v>
+    <v>69.819999999999993</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45037.986954027343</v>
+    <v>45057.958333356248</v>
     <v>0</v>
-    <v>77.61</v>
-    <v>7115387934</v>
+    <v>67.95</v>
+    <v>6180132388</v>
     <v>PLANET FITNESS, INC.</v>
     <v>PLANET FITNESS, INC.</v>
-    <v>77.8</v>
-    <v>66.169799999999995</v>
-    <v>77.59</v>
-    <v>79.55</v>
-    <v>79.010000000000005</v>
-    <v>89445480</v>
+    <v>68.81</v>
+    <v>55.173699999999997</v>
+    <v>69.11</v>
+    <v>69.290000000000006</v>
+    <v>69.599999999999994</v>
+    <v>89192270</v>
     <v>PLNT</v>
     <v>PLANET FITNESS, INC. (XNYS:PLNT)</v>
-    <v>778591</v>
-    <v>731293</v>
+    <v>869974</v>
+    <v>1145371</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2894,10 +2894,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N75" sqref="N75"/>
+      <selection pane="bottomRight" activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3713,15 +3713,15 @@
       </c>
       <c r="R16" s="32">
         <f>S101/K3</f>
-        <v>7.5956454014424004</v>
+        <v>6.5972642094340994</v>
       </c>
       <c r="S16" s="32">
         <f>S101/K28</f>
-        <v>71.581939337236676</v>
+        <v>62.17311913241182</v>
       </c>
       <c r="T16" s="33">
         <f>S101/K106</f>
-        <v>50.769803310738496</v>
+        <v>44.096556460934714</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6166,10 +6166,10 @@
       <c r="K83" s="1">
         <v>-4112000</v>
       </c>
-      <c r="R83" s="61" t="s">
+      <c r="R83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="S83" s="62"/>
+      <c r="S83" s="64"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6205,10 +6205,10 @@
       <c r="K84" s="1">
         <v>-14721000</v>
       </c>
-      <c r="R84" s="63" t="s">
+      <c r="R84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="S84" s="64"/>
+      <c r="S84" s="66"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6603,10 +6603,10 @@
       <c r="K93" s="1">
         <v>-406509000</v>
       </c>
-      <c r="R93" s="63" t="s">
+      <c r="R93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="S93" s="64"/>
+      <c r="S93" s="66"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="S95" s="40" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>1.2986</v>
+        <v>1.3193999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="S97" s="38">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>9.685473E-2</v>
+        <v>9.7750169999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -6808,10 +6808,10 @@
       <c r="K98" s="1">
         <v>-1876000</v>
       </c>
-      <c r="R98" s="63" t="s">
+      <c r="R98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="S98" s="64"/>
+      <c r="S98" s="66"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="S100" s="36">
         <f>S99/S103</f>
-        <v>0.24753556391224504</v>
+        <v>0.27470525184492761</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="S101" s="41" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7115387934</v>
+        <v>6180132388</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="S102" s="36">
         <f>S101/S103</f>
-        <v>0.75246443608775493</v>
+        <v>0.72529474815507244</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="S103" s="42">
         <f>S99+S101</f>
-        <v>9456111934</v>
+        <v>8520856388</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7057,10 +7057,10 @@
       <c r="K104" s="11">
         <v>472499000</v>
       </c>
-      <c r="R104" s="63" t="s">
+      <c r="R104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="S104" s="64"/>
+      <c r="S104" s="66"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="S105" s="28">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>7.9319566529798533E-2</v>
+        <v>7.8044351851222993E-2</v>
       </c>
       <c r="T105" s="15"/>
       <c r="AH105" s="15"/>
@@ -7219,7 +7219,7 @@
       <c r="O107" s="44"/>
       <c r="P107" s="47">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>4201348642.1753759</v>
+        <v>4302351317.6975937</v>
       </c>
       <c r="Q107" s="48" t="s">
         <v>148</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="P108" s="47">
         <f>P107+P106</f>
-        <v>4423997849.0861311</v>
+        <v>4525000524.6083488</v>
       </c>
       <c r="Q108" s="48" t="s">
         <v>144</v>
@@ -7260,14 +7260,14 @@
       </c>
       <c r="S108" s="52">
         <f>S105</f>
-        <v>7.9319566529798533E-2</v>
+        <v>7.8044351851222993E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="L109" s="65" t="s">
+      <c r="L109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="M109" s="66"/>
+      <c r="M109" s="62"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="L110" s="53" t="s">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="M110" s="41">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>3604335172.5312638</v>
+        <v>3693351021.9348187</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="M113" s="41">
         <f>M110+M111-M112</f>
-        <v>1673451172.5312638</v>
+        <v>1762467021.9348187</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="M114" s="54" cm="1">
         <f t="array" ref="M114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>89445480</v>
+        <v>89192270</v>
       </c>
     </row>
     <row r="115" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="M115" s="56">
         <f>M113/M114</f>
-        <v>18.709175382940131</v>
+        <v>19.760311313242937</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="M116" s="57" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price")</f>
-        <v>79.55</v>
+        <v>69.290000000000006</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="M117" s="59">
         <f>M115/M116-1</f>
-        <v>-0.76481237733576202</v>
+        <v>-0.71481727069933698</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Planet Fitness.xlsx
+++ b/Consumer/Planet Fitness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F73FC-CA84-BB4D-AA85-D5B5E2DC5AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB1D45-A8E3-0949-8DF9-99AC5D82BD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2276,37 +2276,34 @@
     <v>Powered by Refinitiv</v>
     <v>85.905000000000001</v>
     <v>54.15</v>
-    <v>1.3193999999999999</v>
-    <v>0.18</v>
-    <v>2.6050000000000001E-3</v>
-    <v>0.31</v>
-    <v>4.4740000000000005E-3</v>
+    <v>1.3140000000000001</v>
+    <v>-2.105</v>
+    <v>-3.1019999999999999E-2</v>
     <v>USD</v>
-    <v>Planet Fitness, Inc. is a franchisor and operator of fitness centers in the United States. The Company operates through three segments: Franchise; Corporate-owned stores, and Equipment. The Franchise segment includes operations related to the Company's franchising business in the United States, Puerto Rico, the Dominican Republic and Canada. The Corporate-owned stores segment includes operations with respect to all corporate-owned stores throughout the United States and Canada. The Equipment segment includes the sale of equipment to franchisee-owned stores. As of June 18, 2019, it had approximately 13.6 million members and 1806 stores in 50 states, the District of Columbia, Puerto Rico, Canada and the Dominican Republic.</v>
+    <v>Planet Fitness, Inc. is a franchisor and operator of fitness centers in the United States. The Company operates through three segments: Franchise, Corporate-owned stores, and Equipment. The Franchise segment includes operations related to its franchising business in the United States, Puerto Rico, Canada, Panama, Mexico and Australia. The Corporate-owned stores segment includes operations with respect to all corporate-owned stores throughout the United States and Canada. The Equipment segment primarily includes the sale of equipment to franchisee-owned stores in the United States, Canada and Mexico. Its subsidiaries operate three lines of business, which include licensing and selling franchises, owning and operating fitness centers, and selling fitness-related equipment to franchisee-owned stores. The Company has approximately 2,446 stores in 50 states, the District of Columbia, Puerto Rico, Canada, Panama, Mexico and Australia.</v>
     <v>2795</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4 Liberty Lane West, HAMPTON, NH, 03842 US</v>
-    <v>69.819999999999993</v>
+    <v>66.48</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45057.958333356248</v>
+    <v>45100.784377071097</v>
     <v>0</v>
-    <v>67.95</v>
-    <v>6180132388</v>
+    <v>64.010000000000005</v>
+    <v>5864837713</v>
     <v>PLANET FITNESS, INC.</v>
     <v>PLANET FITNESS, INC.</v>
-    <v>68.81</v>
-    <v>55.173699999999997</v>
-    <v>69.11</v>
-    <v>69.290000000000006</v>
-    <v>69.599999999999994</v>
+    <v>65.349999999999994</v>
+    <v>54.175699999999999</v>
+    <v>67.86</v>
+    <v>65.754999999999995</v>
     <v>89192270</v>
     <v>PLNT</v>
     <v>PLANET FITNESS, INC. (XNYS:PLNT)</v>
-    <v>869974</v>
-    <v>1145371</v>
+    <v>1410167</v>
+    <v>1887214</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2338,8 +2335,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2360,7 +2355,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2377,7 +2371,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2388,16 +2382,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2463,19 +2454,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2520,9 +2505,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2530,9 +2512,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2897,7 +2876,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P102" sqref="P102"/>
+      <selection pane="bottomRight" activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3713,15 +3692,15 @@
       </c>
       <c r="R16" s="32">
         <f>S101/K3</f>
-        <v>6.5972642094340994</v>
+        <v>6.2606885271976536</v>
       </c>
       <c r="S16" s="32">
         <f>S101/K28</f>
-        <v>62.17311913241182</v>
+        <v>59.001204331904788</v>
       </c>
       <c r="T16" s="33">
         <f>S101/K106</f>
-        <v>44.096556460934714</v>
+        <v>41.846862026400288</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6688,7 +6667,7 @@
       </c>
       <c r="S95" s="40" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>1.3193999999999999</v>
+        <v>1.3140000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6771,7 +6750,7 @@
       </c>
       <c r="S97" s="38">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>9.7750169999999997E-2</v>
+        <v>9.7517700000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -6894,7 +6873,7 @@
       </c>
       <c r="S100" s="36">
         <f>S99/S103</f>
-        <v>0.27470525184492761</v>
+        <v>0.28526066610304218</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6936,7 +6915,7 @@
       </c>
       <c r="S101" s="41" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6180132388</v>
+        <v>5864837713</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -6978,7 +6957,7 @@
       </c>
       <c r="S102" s="36">
         <f>S101/S103</f>
-        <v>0.72529474815507244</v>
+        <v>0.71473933389695776</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7020,7 +6999,7 @@
       </c>
       <c r="S103" s="42">
         <f>S99+S101</f>
-        <v>8520856388</v>
+        <v>8205561713</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7114,7 +7093,7 @@
       </c>
       <c r="S105" s="28">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>7.8044351851222993E-2</v>
+        <v>7.71210100232083E-2</v>
       </c>
       <c r="T105" s="15"/>
       <c r="AH105" s="15"/>
@@ -7219,7 +7198,7 @@
       <c r="O107" s="44"/>
       <c r="P107" s="47">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>4302351317.6975937</v>
+        <v>4378568968.2894659</v>
       </c>
       <c r="Q107" s="48" t="s">
         <v>148</v>
@@ -7250,7 +7229,7 @@
       </c>
       <c r="P108" s="47">
         <f>P107+P106</f>
-        <v>4525000524.6083488</v>
+        <v>4601218175.2002211</v>
       </c>
       <c r="Q108" s="48" t="s">
         <v>144</v>
@@ -7260,7 +7239,7 @@
       </c>
       <c r="S108" s="52">
         <f>S105</f>
-        <v>7.8044351851222993E-2</v>
+        <v>7.71210100232083E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7275,7 +7254,7 @@
       </c>
       <c r="M110" s="41">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>3693351021.9348187</v>
+        <v>3760530445.2469234</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7302,7 +7281,7 @@
       </c>
       <c r="M113" s="41">
         <f>M110+M111-M112</f>
-        <v>1762467021.9348187</v>
+        <v>1829646445.2469234</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7320,7 +7299,7 @@
       </c>
       <c r="M115" s="56">
         <f>M113/M114</f>
-        <v>19.760311313242937</v>
+        <v>20.513509133100026</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7329,7 +7308,7 @@
       </c>
       <c r="M116" s="57" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price")</f>
-        <v>69.290000000000006</v>
+        <v>65.754999999999995</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7338,7 +7317,7 @@
       </c>
       <c r="M117" s="59">
         <f>M115/M116-1</f>
-        <v>-0.71481727069933698</v>
+        <v>-0.68803118952018816</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">
